--- a/0_0_Data/3_Naive_Forecaster_Data/2_YoY_Component_Forecast_Vectors/dt_full_CONSTR_yoy_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_YoY_Component_Forecast_Vectors/dt_full_CONSTR_yoy_AVERAGE_10_9.xlsx
@@ -542,6 +542,9 @@
       <c r="A3" s="1">
         <v>40178</v>
       </c>
+      <c r="B3">
+        <v>2.794415499126957</v>
+      </c>
       <c r="C3">
         <v>-0.1634715480938964</v>
       </c>
@@ -700,11 +703,14 @@
       <c r="A4" s="1">
         <v>40543</v>
       </c>
+      <c r="B4">
+        <v>1.929662451756009</v>
+      </c>
       <c r="C4">
-        <v>1.891388820389239</v>
+        <v>1.79986265093306</v>
       </c>
       <c r="D4">
-        <v>-1.410155083055242</v>
+        <v>-0.8854380943849716</v>
       </c>
       <c r="E4">
         <v>0.6888449045935552</v>
@@ -859,16 +865,16 @@
         <v>40908</v>
       </c>
       <c r="C5">
-        <v>-0.1898634176700442</v>
+        <v>-0.3103476474035083</v>
       </c>
       <c r="D5">
-        <v>-2.792894024588211</v>
+        <v>-2.218321983005667</v>
       </c>
       <c r="E5">
-        <v>0.8150163191371407</v>
+        <v>1.532898100704427</v>
       </c>
       <c r="F5">
-        <v>-0.7023952319652582</v>
+        <v>-0.03788152406275502</v>
       </c>
       <c r="G5">
         <v>3.609425886625339</v>
@@ -1017,16 +1023,16 @@
         <v>41274</v>
       </c>
       <c r="E6">
-        <v>-0.6520556106589193</v>
+        <v>1.0892423430376</v>
       </c>
       <c r="F6">
-        <v>-1.2823697933527</v>
+        <v>0.3618709043640589</v>
       </c>
       <c r="G6">
-        <v>-2.340942291090131</v>
+        <v>-1.675983833549222</v>
       </c>
       <c r="H6">
-        <v>1.585639835533792</v>
+        <v>2.15807511757542</v>
       </c>
       <c r="I6">
         <v>1.169339034160743</v>
@@ -1169,16 +1175,16 @@
         <v>41639</v>
       </c>
       <c r="G7">
-        <v>-0.1273285226549681</v>
+        <v>1.277667191469334</v>
       </c>
       <c r="H7">
-        <v>1.076680055599222</v>
+        <v>2.627768965131905</v>
       </c>
       <c r="I7">
-        <v>2.48996578742573</v>
+        <v>2.659314723144024</v>
       </c>
       <c r="J7">
-        <v>2.663814986077173</v>
+        <v>2.814292328656265</v>
       </c>
       <c r="K7">
         <v>4.818619766830312</v>
@@ -1315,16 +1321,16 @@
         <v>42004</v>
       </c>
       <c r="I8">
-        <v>0.9290327582933022</v>
+        <v>1.423575078814565</v>
       </c>
       <c r="J8">
-        <v>0.8496349075146847</v>
+        <v>1.277551254953391</v>
       </c>
       <c r="K8">
-        <v>2.023566256548803</v>
+        <v>2.906157307553836</v>
       </c>
       <c r="L8">
-        <v>2.044451981030071</v>
+        <v>2.942581135514977</v>
       </c>
       <c r="M8">
         <v>6.33415002955966</v>
@@ -1455,16 +1461,16 @@
         <v>42369</v>
       </c>
       <c r="K9">
-        <v>1.644663494202292</v>
+        <v>4.038794034641202</v>
       </c>
       <c r="L9">
-        <v>1.676402945036592</v>
+        <v>4.110668188518263</v>
       </c>
       <c r="M9">
-        <v>2.500747887155219</v>
+        <v>3.586987532670949</v>
       </c>
       <c r="N9">
-        <v>2.81553484302739</v>
+        <v>3.878230798954285</v>
       </c>
       <c r="O9">
         <v>1.29595620404217</v>
@@ -1589,16 +1595,16 @@
         <v>42735</v>
       </c>
       <c r="M10">
-        <v>2.693973404745775</v>
+        <v>5.578558913710663</v>
       </c>
       <c r="N10">
-        <v>2.700536539615528</v>
+        <v>5.555223160690259</v>
       </c>
       <c r="O10">
-        <v>3.353889722800885</v>
+        <v>3.42596297413984</v>
       </c>
       <c r="P10">
-        <v>3.108343210284747</v>
+        <v>3.075158037444581</v>
       </c>
       <c r="Q10">
         <v>1.191891383640931</v>
@@ -1717,13 +1723,13 @@
         <v>43100</v>
       </c>
       <c r="O11">
-        <v>2.42994320179164</v>
+        <v>2.76275821580223</v>
       </c>
       <c r="P11">
-        <v>2.310275639508652</v>
+        <v>2.367041597905817</v>
       </c>
       <c r="Q11">
-        <v>2.202384637692645</v>
+        <v>1.999626938280241</v>
       </c>
       <c r="R11">
         <v>2.605949513341166</v>
@@ -1839,13 +1845,13 @@
         <v>43465</v>
       </c>
       <c r="Q12">
-        <v>1.996081671362715</v>
+        <v>1.512800301290995</v>
       </c>
       <c r="R12">
-        <v>2.494079012252981</v>
+        <v>2.590730081186199</v>
       </c>
       <c r="S12">
-        <v>2.802188955976592</v>
+        <v>2.793289702145763</v>
       </c>
       <c r="T12">
         <v>2.91103534844559</v>
@@ -1955,16 +1961,16 @@
         <v>43830</v>
       </c>
       <c r="R13">
-        <v>2.184748185180241</v>
+        <v>2.494417544901628</v>
       </c>
       <c r="S13">
-        <v>2.127850472039139</v>
+        <v>2.207308935472674</v>
       </c>
       <c r="T13">
-        <v>2.494065902227693</v>
+        <v>2.821516951149361</v>
       </c>
       <c r="U13">
-        <v>2.638805331465632</v>
+        <v>3.016819787229474</v>
       </c>
       <c r="V13">
         <v>2.681588411688174</v>
@@ -2068,19 +2074,19 @@
         <v>44196</v>
       </c>
       <c r="T14">
-        <v>2.20949737103695</v>
+        <v>3.121124374623663</v>
       </c>
       <c r="U14">
-        <v>2.252924883842367</v>
+        <v>3.300883241600383</v>
       </c>
       <c r="V14">
-        <v>2.302001931498299</v>
+        <v>2.535635243126988</v>
       </c>
       <c r="W14">
-        <v>2.350532762566981</v>
+        <v>2.637488927515808</v>
       </c>
       <c r="X14">
-        <v>2.542389131357292</v>
+        <v>2.841516658941856</v>
       </c>
       <c r="Y14">
         <v>2.577304619443699</v>
@@ -2175,25 +2181,25 @@
         <v>44561</v>
       </c>
       <c r="V15">
-        <v>2.285623054231078</v>
+        <v>2.905506582474837</v>
       </c>
       <c r="W15">
-        <v>2.33012567918025</v>
+        <v>3.099927982210238</v>
       </c>
       <c r="X15">
-        <v>2.354558686406971</v>
+        <v>3.177336867742331</v>
       </c>
       <c r="Y15">
-        <v>2.579289986090805</v>
+        <v>2.46048248889319</v>
       </c>
       <c r="Z15">
-        <v>2.337288637895485</v>
+        <v>2.220932789361152</v>
       </c>
       <c r="AA15">
-        <v>2.284614103043059</v>
+        <v>2.167670286234991</v>
       </c>
       <c r="AB15">
-        <v>2.334351484238573</v>
+        <v>2.207173254521999</v>
       </c>
       <c r="AC15">
         <v>1.646610545736693</v>
@@ -2276,28 +2282,28 @@
         <v>44926</v>
       </c>
       <c r="Y16">
-        <v>2.908924508106869</v>
+        <v>2.574315362377289</v>
       </c>
       <c r="Z16">
-        <v>2.906931869520246</v>
+        <v>2.562407432124303</v>
       </c>
       <c r="AA16">
-        <v>2.905666986951161</v>
+        <v>2.556000311085604</v>
       </c>
       <c r="AB16">
-        <v>2.899223576818044</v>
+        <v>2.525788519949024</v>
       </c>
       <c r="AC16">
-        <v>1.854129503993396</v>
+        <v>1.496881353009161</v>
       </c>
       <c r="AD16">
-        <v>2.069400274665556</v>
+        <v>1.694296813984009</v>
       </c>
       <c r="AE16">
-        <v>2.056851342586286</v>
+        <v>1.629686186121027</v>
       </c>
       <c r="AF16">
-        <v>2.47025997845749</v>
+        <v>1.619782579158202</v>
       </c>
       <c r="AG16">
         <v>2.456157844175344</v>
@@ -2368,28 +2374,28 @@
         <v>45291</v>
       </c>
       <c r="AC17">
-        <v>2.896181448461377</v>
+        <v>1.83915572102098</v>
       </c>
       <c r="AD17">
-        <v>2.891668106948453</v>
+        <v>1.811820461872138</v>
       </c>
       <c r="AE17">
-        <v>2.852385144676184</v>
+        <v>1.633300070291677</v>
       </c>
       <c r="AF17">
-        <v>2.572082596887459</v>
+        <v>0.3071129274195616</v>
       </c>
       <c r="AG17">
-        <v>2.248859244713008</v>
+        <v>2.257237375640031</v>
       </c>
       <c r="AH17">
-        <v>1.903379991958465</v>
+        <v>2.059057776028594</v>
       </c>
       <c r="AI17">
-        <v>1.911596076312705</v>
+        <v>1.937440955395164</v>
       </c>
       <c r="AJ17">
-        <v>1.753471553489772</v>
+        <v>1.388548717051186</v>
       </c>
       <c r="AK17">
         <v>2.26181103369234</v>
@@ -2448,28 +2454,28 @@
         <v>45657</v>
       </c>
       <c r="AG18">
-        <v>2.181996052405832</v>
+        <v>2.213620378726788</v>
       </c>
       <c r="AH18">
-        <v>2.250543904115143</v>
+        <v>2.610416778758373</v>
       </c>
       <c r="AI18">
-        <v>2.157418026802493</v>
+        <v>2.179993174715689</v>
       </c>
       <c r="AJ18">
-        <v>1.892550870823939</v>
+        <v>0.890977499942136</v>
       </c>
       <c r="AK18">
-        <v>1.801568252400854</v>
+        <v>2.058050235820175</v>
       </c>
       <c r="AL18">
-        <v>1.845679262083366</v>
+        <v>2.29686889447267</v>
       </c>
       <c r="AM18">
-        <v>2.393226963573714</v>
+        <v>3.014134262744617</v>
       </c>
       <c r="AN18">
-        <v>1.38408945982178</v>
+        <v>1.437806261771213</v>
       </c>
       <c r="AO18">
         <v>2.424398292823859</v>
@@ -2516,28 +2522,28 @@
         <v>46022</v>
       </c>
       <c r="AK19">
-        <v>2.230831226760133</v>
+        <v>2.849992723907335</v>
       </c>
       <c r="AL19">
-        <v>2.355198655721336</v>
+        <v>3.479464952554112</v>
       </c>
       <c r="AM19">
-        <v>2.504600761553366</v>
+        <v>4.125217580302332</v>
       </c>
       <c r="AN19">
-        <v>2.08382299734704</v>
+        <v>2.148304186541194</v>
       </c>
       <c r="AO19">
-        <v>2.733852620130661</v>
+        <v>2.599913004672616</v>
       </c>
       <c r="AP19">
-        <v>2.632936346113524</v>
+        <v>2.337862417976333</v>
       </c>
       <c r="AQ19">
-        <v>2.626098974328106</v>
+        <v>2.577692526489739</v>
       </c>
       <c r="AR19">
-        <v>-0.3802837230947875</v>
+        <v>-1.390622874876313</v>
       </c>
       <c r="AS19">
         <v>0.09436028892164661</v>
@@ -2572,28 +2578,28 @@
         <v>46387</v>
       </c>
       <c r="AO20">
-        <v>1.571144157480564</v>
+        <v>1.343460690969822</v>
       </c>
       <c r="AP20">
-        <v>1.467478035333536</v>
+        <v>0.8329290289207147</v>
       </c>
       <c r="AQ20">
-        <v>1.592794817556142</v>
+        <v>1.539533176834884</v>
       </c>
       <c r="AR20">
-        <v>0.7370526814818978</v>
+        <v>-2.093034802586002</v>
       </c>
       <c r="AS20">
-        <v>0.9230846597056308</v>
+        <v>0.5029237023806754</v>
       </c>
       <c r="AT20">
-        <v>0.8936826136602072</v>
+        <v>0.4565833992175916</v>
       </c>
       <c r="AU20">
-        <v>1.510432721646504</v>
+        <v>1.187924830910969</v>
       </c>
       <c r="AV20">
-        <v>1.368519649583089</v>
+        <v>0.8461784325530575</v>
       </c>
       <c r="AW20">
         <v>1.056399611690195</v>
@@ -2616,28 +2622,28 @@
         <v>46752</v>
       </c>
       <c r="AS21">
-        <v>0.3422045598358014</v>
+        <v>-0.7352716516441982</v>
       </c>
       <c r="AT21">
-        <v>0.3303630646635192</v>
+        <v>-0.7869205535448565</v>
       </c>
       <c r="AU21">
-        <v>0.4347757651879114</v>
+        <v>-0.3489999547360179</v>
       </c>
       <c r="AV21">
-        <v>0.304720530787228</v>
+        <v>-0.9869022883377543</v>
       </c>
       <c r="AW21">
-        <v>0.9851042417705402</v>
+        <v>1.005480064500386</v>
       </c>
       <c r="AX21">
-        <v>0.6570922323788642</v>
+        <v>0.5434772144153888</v>
       </c>
       <c r="AY21">
-        <v>0.6900054142958689</v>
+        <v>0.5503752294844233</v>
       </c>
       <c r="AZ21">
-        <v>1.898118939104165</v>
+        <v>1.903706680019468</v>
       </c>
       <c r="BA21">
         <v>2.342200249095283</v>
@@ -2648,19 +2654,19 @@
         <v>47118</v>
       </c>
       <c r="AW22">
-        <v>0.3990682155961878</v>
+        <v>0.5134406156019233</v>
       </c>
       <c r="AX22">
-        <v>0.2916178635971267</v>
+        <v>0.03073175363270675</v>
       </c>
       <c r="AY22">
-        <v>0.2790286427338806</v>
+        <v>-0.04341979710753563</v>
       </c>
       <c r="AZ22">
-        <v>0.4845832252091453</v>
+        <v>0.6808804886353492</v>
       </c>
       <c r="BA22">
-        <v>1.93775790287003</v>
+        <v>2.403526819519342</v>
       </c>
     </row>
     <row r="23" spans="1:53">
@@ -2668,7 +2674,7 @@
         <v>47483</v>
       </c>
       <c r="BA23">
-        <v>0.4889527588235465</v>
+        <v>1.910815645575914</v>
       </c>
     </row>
     <row r="24" spans="1:53">
